--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1904.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1904.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E895A-D099-4C99-9694-B00FCC6CFEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D86175-D131-44EB-BD68-F4E9708BD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="60030" yWindow="2970" windowWidth="30630" windowHeight="18885" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -783,19 +788,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -809,24 +814,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="12" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.15625" style="5"/>
+    <col min="7" max="8" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" style="5"/>
+    <col min="12" max="13" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="5"/>
-    <col min="17" max="19" width="9.140625" style="5"/>
+    <col min="15" max="15" width="9.15625" style="5"/>
+    <col min="17" max="19" width="9.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,7 +883,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -936,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -994,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1686,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2208,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2440,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2556,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2846,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -3020,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3368,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3542,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3561,7 +3566,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
-        <v>457.3</v>
+        <v>453.7</v>
       </c>
       <c r="H48" s="2">
         <v>418.5</v>
@@ -3571,7 +3576,7 @@
       </c>
       <c r="J48" s="4">
         <f t="shared" si="1"/>
-        <v>3.5999999999999091</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2">
@@ -3589,7 +3594,7 @@
       </c>
       <c r="Q48" s="4">
         <f t="shared" si="3"/>
-        <v>3.5999999999999091</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4">
         <f t="shared" si="4"/>
@@ -3600,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3774,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4006,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4064,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4238,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4470,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4586,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4644,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4876,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4934,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4992,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -5108,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -5340,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -5398,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -5456,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -5572,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -5688,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -5746,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -5804,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -5920,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -5976,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -6092,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -6324,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -6382,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -6440,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -6556,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>111</v>
       </c>
@@ -6614,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -6672,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>112</v>
       </c>
@@ -6730,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>113</v>
       </c>
@@ -6788,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>114</v>
       </c>
@@ -6846,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
@@ -6904,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>116</v>
       </c>
@@ -6962,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>117</v>
       </c>
@@ -7020,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>123</v>
       </c>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1904.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1904.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D86175-D131-44EB-BD68-F4E9708BD883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A2F75-B69B-40FE-9249-F4F5D5BEAA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60030" yWindow="2970" windowWidth="30630" windowHeight="18885" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89910" yWindow="240" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -814,8 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
